--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试统计" sheetId="5" r:id="rId1"/>
@@ -13,242 +13,972 @@
     <sheet name="学生信息管理" sheetId="3" r:id="rId4"/>
     <sheet name="增加学生信息" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">登录!$A$1:$K$65</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BUG ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>账号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>输入账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>Login_002</t>
   </si>
   <si>
     <t>输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_003</t>
   </si>
   <si>
     <t>密码不合理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_004</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_005</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_006</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_007</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_008</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_009</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_010</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号过长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_011</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号过短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_012</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码过长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_013</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码过短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_014</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号密码正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_015</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号前面带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_016</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号中间带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_017</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号后面带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_018</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码前面带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_019</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码中间带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_020</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码后面带空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_021</t>
+  </si>
+  <si>
+    <t>账号密码合法性验证，账号字符检查</t>
+  </si>
+  <si>
+    <t>Login_022</t>
+  </si>
+  <si>
+    <t>账号密码合法性验证，密码输入中文</t>
+  </si>
+  <si>
+    <t>Login_023</t>
   </si>
   <si>
     <t>账号密码合法性验证，重复2次输入错误密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_024</t>
   </si>
   <si>
     <t>账号密码合法性验证，重复3次输入错误密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_025</t>
+  </si>
+  <si>
+    <t>账号密码合法性验证，账号大小写</t>
+  </si>
+  <si>
+    <t>Login_026</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号密码合法性验证，账号大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_027</t>
   </si>
   <si>
     <t>文本框合法性验证，账号密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_028</t>
   </si>
   <si>
     <t>页面跳转合法性验证，账号密码正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号密码合法性验证，账号字符检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号密码合法性验证，密码输入中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_029</t>
   </si>
   <si>
     <t>错误提示高亮验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_030</t>
   </si>
   <si>
     <t>文本框合法性验证，复制粘贴账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_031</t>
   </si>
   <si>
     <t>文本框合法性验证，复制粘贴密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_032</t>
   </si>
   <si>
     <t>登录正常性验证，点击登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_033</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Tab"键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_034</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Enter"键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_035</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Shift"键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_036</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Backspace"键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_037</t>
   </si>
   <si>
     <t>键盘操作可行性验证，空格键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login_038</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>Login_039</t>
+  </si>
+  <si>
+    <t>文本框合法性验证，输入账号刷新页面</t>
+  </si>
+  <si>
+    <t>Login_040</t>
+  </si>
+  <si>
+    <t>文本框合法性验证，输入密码刷新页面</t>
+  </si>
+  <si>
+    <t>Login_041</t>
+  </si>
+  <si>
+    <t>文本框合法性验证，输入账号密码刷新页面</t>
+  </si>
+  <si>
+    <t>Login_042</t>
+  </si>
+  <si>
+    <t>密码安全性验证，后台储存密码加密</t>
+  </si>
+  <si>
+    <t>安全性测试</t>
+  </si>
+  <si>
+    <t>Login_043</t>
+  </si>
+  <si>
+    <t>密码安全性验证，网络传输密码加密</t>
+  </si>
+  <si>
+    <t>Login_044</t>
+  </si>
+  <si>
+    <t>密码安全性验证，间隔一段时间重新输入密码</t>
+  </si>
+  <si>
+    <t>Login_045</t>
+  </si>
+  <si>
+    <t>密码安全性验证，复制粘贴密码</t>
+  </si>
+  <si>
+    <t>Login_046</t>
+  </si>
+  <si>
+    <t>重定向安全性验证，直接输入登录后的地址</t>
+  </si>
+  <si>
+    <t>Login_047</t>
+  </si>
+  <si>
+    <t>密码安全性验证，在源码中查看输入密码</t>
+  </si>
+  <si>
+    <t>Login_048</t>
+  </si>
+  <si>
+    <t>账号安全性验证，SQL注入攻击</t>
+  </si>
+  <si>
+    <t>Login_049</t>
+  </si>
+  <si>
+    <t>密码安全性验证，SQL注入攻击</t>
+  </si>
+  <si>
+    <t>Login_050</t>
+  </si>
+  <si>
+    <t>账号安全性验证，XSS跨站脚本攻击</t>
+  </si>
+  <si>
+    <t>Login_051</t>
+  </si>
+  <si>
+    <t>密码安全性验证，XSS跨站脚本攻击</t>
+  </si>
+  <si>
+    <t>Login_052</t>
+  </si>
+  <si>
+    <t>登录安全性验证，多次登录失败，暴力破解</t>
+  </si>
+  <si>
+    <t>Login_053</t>
+  </si>
+  <si>
+    <t>登录安全性验证，多终端登录同一个用户</t>
+  </si>
+  <si>
+    <t>Login_054</t>
+  </si>
+  <si>
+    <t>登录页面验证，打开登录页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>性能测试</t>
+  </si>
+  <si>
+    <t>Login_055</t>
+  </si>
+  <si>
+    <t>登录时间验证，单用户登录响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Login_056</t>
+  </si>
+  <si>
+    <t>登录时间验证，单用户登录响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Login_057</t>
+  </si>
+  <si>
+    <t>登录时间验证，单用户登录响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Login_058</t>
+  </si>
+  <si>
+    <t>登录时间验证，多用户登录响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Login_059</t>
+  </si>
+  <si>
+    <t>高并发场景下服务端的监控指标是否符合预期</t>
+  </si>
+  <si>
+    <t>Login_060</t>
+  </si>
+  <si>
+    <t>高集合点并发场景下，是否存在资源死锁和不合理的资源等待</t>
+  </si>
+  <si>
+    <t>Login_061</t>
+  </si>
+  <si>
+    <t>长时间大量用户连续登录和登出，服务器端是否存在内存泄漏</t>
+  </si>
+  <si>
+    <t>Login_062</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证登录页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>兼容性测试</t>
+  </si>
+  <si>
+    <t>Login_063</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证登录页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Login_064</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证登录页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>信息学生查询</t>
+  </si>
+  <si>
+    <t>search_001</t>
+  </si>
+  <si>
+    <t>查询学生信息</t>
+  </si>
+  <si>
+    <t>页面显示验证，点击专业选择</t>
+  </si>
+  <si>
+    <t>页面显示验证，点击年级选择</t>
+  </si>
+  <si>
+    <t>页面显示验证，点击查询</t>
+  </si>
+  <si>
+    <t>页面显示验证，点击返回</t>
+  </si>
+  <si>
+    <t>页面显示验证，选择专业</t>
+  </si>
+  <si>
+    <t>页面显示验证，选择年级</t>
+  </si>
+  <si>
+    <t>查询功能验证，选择专业，点击查询</t>
+  </si>
+  <si>
+    <t>查询功能验证，选择年级，点击查询</t>
+  </si>
+  <si>
+    <t>选择框功能验证，随机选择专业</t>
+  </si>
+  <si>
+    <t>返回功能验证，点击返回</t>
+  </si>
+  <si>
+    <t>综合查询验证，选择专业和年级，点击查询</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询全部，再查询专业</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询全部，再查询年级</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询专业，再查询全部</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询年级，再查询专业</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询专业，再查询其他专业</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询年级，再查询其他年级</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询专业和年级，再查询其他专业</t>
+  </si>
+  <si>
+    <t>查询功能验证，查询专业和年级，再查询其他年级</t>
+  </si>
+  <si>
+    <t>查询功能验证，多次查询专业</t>
+  </si>
+  <si>
+    <t>查询功能验证，多次查询年级</t>
+  </si>
+  <si>
+    <t>查询功能验证，多次查询全部</t>
+  </si>
+  <si>
+    <t>选择框验证，查询专业，选择框重置</t>
+  </si>
+  <si>
+    <t>选择框验证，查询年级，选择框重置</t>
+  </si>
+  <si>
+    <t>页面刷新验证，刷新页面选择重置</t>
+  </si>
+  <si>
+    <t>页面信息验证，查询全部</t>
+  </si>
+  <si>
+    <t>页面信息验证，查询专业</t>
+  </si>
+  <si>
+    <t>页面信息验证，查询年级</t>
+  </si>
+  <si>
+    <t>学生个人信息</t>
+  </si>
+  <si>
+    <t>学号验证</t>
+  </si>
+  <si>
+    <t>姓名验证</t>
+  </si>
+  <si>
+    <t>年级验证</t>
+  </si>
+  <si>
+    <t>专业验证</t>
+  </si>
+  <si>
+    <t>点击基础信息</t>
+  </si>
+  <si>
+    <t>点击毕业设计</t>
+  </si>
+  <si>
+    <t>点击实习信息</t>
+  </si>
+  <si>
+    <t>点击工作信息</t>
+  </si>
+  <si>
+    <t>点击项目信息</t>
+  </si>
+  <si>
+    <t>点击交流建议</t>
+  </si>
+  <si>
+    <t>点击工作评价</t>
+  </si>
+  <si>
+    <t>点击综合评价</t>
+  </si>
+  <si>
+    <t>基础信息正确性验证</t>
+  </si>
+  <si>
+    <t>毕业设计信息正确性验证</t>
+  </si>
+  <si>
+    <t>实习信息正确性验证</t>
+  </si>
+  <si>
+    <t>工作信息正确性验证</t>
+  </si>
+  <si>
+    <t>项目信息正确性验证</t>
+  </si>
+  <si>
+    <t>交流建议正确性验证</t>
+  </si>
+  <si>
+    <t>工作评价正确性验证</t>
+  </si>
+  <si>
+    <t>综合评价正确性验证</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -256,24 +986,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,7 +1345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +1380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,306 +1583,1422 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F28" activeCellId="1" sqref="D39 F28"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="61.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:11">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:11">
+      <c r="A55" s="3"/>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="1:11">
+      <c r="A56" s="3"/>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" spans="1:11">
+      <c r="A63" s="3"/>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:K65">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A65"/>
+    <mergeCell ref="C2:C65"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="50.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="1"/>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" s="1"/>
+      <c r="D26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" s="1"/>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="1"/>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="1"/>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="1"/>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" s="1"/>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="1"/>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54" s="1"/>
+      <c r="D54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C35"/>
+    <mergeCell ref="C36:C55"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/测试用例.xlsx
+++ b/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试统计" sheetId="5" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="增加学生信息" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">登录!$A$1:$K$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">登录!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">信息学生查询!$A$1:$K$171</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981">
   <si>
     <t>模块</t>
   </si>
@@ -74,244 +75,250 @@
     <t>Login_002</t>
   </si>
   <si>
+    <t>账号不合理</t>
+  </si>
+  <si>
+    <t>Login_003</t>
+  </si>
+  <si>
     <t>输入密码</t>
   </si>
   <si>
-    <t>Login_003</t>
+    <t>Login_004</t>
   </si>
   <si>
     <t>密码不合理</t>
   </si>
   <si>
-    <t>Login_004</t>
+    <t>Login_005</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号存在</t>
   </si>
   <si>
-    <t>Login_005</t>
+    <t>Login_006</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号不存在</t>
   </si>
   <si>
-    <t>Login_006</t>
+    <t>Login_007</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码错误</t>
   </si>
   <si>
-    <t>Login_007</t>
+    <t>Login_008</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号错误</t>
   </si>
   <si>
-    <t>Login_008</t>
+    <t>Login_009</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号为空</t>
   </si>
   <si>
-    <t>Login_009</t>
+    <t>Login_010</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码为空</t>
   </si>
   <si>
-    <t>Login_010</t>
+    <t>Login_011</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号过长</t>
   </si>
   <si>
-    <t>Login_011</t>
+    <t>Login_012</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号过短</t>
   </si>
   <si>
-    <t>Login_012</t>
+    <t>Login_013</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码过长</t>
   </si>
   <si>
-    <t>Login_013</t>
+    <t>Login_014</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码过短</t>
   </si>
   <si>
-    <t>Login_014</t>
+    <t>Login_015</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号密码正确</t>
   </si>
   <si>
-    <t>Login_015</t>
+    <t>Login_016</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号前面带空格</t>
   </si>
   <si>
-    <t>Login_016</t>
+    <t>Login_017</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号中间带空格</t>
   </si>
   <si>
-    <t>Login_017</t>
+    <t>Login_018</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号后面带空格</t>
   </si>
   <si>
-    <t>Login_018</t>
+    <t>Login_019</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码前面带空格</t>
   </si>
   <si>
-    <t>Login_019</t>
+    <t>Login_020</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码中间带空格</t>
   </si>
   <si>
-    <t>Login_020</t>
+    <t>Login_021</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码后面带空格</t>
   </si>
   <si>
-    <t>Login_021</t>
+    <t>Login_022</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号字符检查</t>
   </si>
   <si>
-    <t>Login_022</t>
+    <t>Login_023</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码输入中文</t>
   </si>
   <si>
-    <t>Login_023</t>
+    <t>Login_024</t>
   </si>
   <si>
     <t>账号密码合法性验证，重复2次输入错误密码</t>
   </si>
   <si>
-    <t>Login_024</t>
+    <t>Login_025</t>
   </si>
   <si>
     <t>账号密码合法性验证，重复3次输入错误密码</t>
   </si>
   <si>
-    <t>Login_025</t>
+    <t>Login_026</t>
   </si>
   <si>
     <t>账号密码合法性验证，账号大小写</t>
   </si>
   <si>
-    <t>Login_026</t>
+    <t>Login_027</t>
   </si>
   <si>
     <t>账号密码合法性验证，密码大小写</t>
   </si>
   <si>
-    <t>Login_027</t>
+    <t>Login_028</t>
   </si>
   <si>
     <t>文本框合法性验证，账号密码为空</t>
   </si>
   <si>
-    <t>Login_028</t>
+    <t>Login_029</t>
   </si>
   <si>
     <t>页面跳转合法性验证，账号密码正确</t>
   </si>
   <si>
-    <t>Login_029</t>
+    <t>Login_030</t>
   </si>
   <si>
     <t>错误提示高亮验证</t>
   </si>
   <si>
-    <t>Login_030</t>
+    <t>Login_031</t>
   </si>
   <si>
     <t>文本框合法性验证，复制粘贴账号</t>
   </si>
   <si>
-    <t>Login_031</t>
+    <t>Login_032</t>
   </si>
   <si>
     <t>文本框合法性验证，复制粘贴密码</t>
   </si>
   <si>
-    <t>Login_032</t>
+    <t>Login_033</t>
   </si>
   <si>
     <t>登录正常性验证，点击登录</t>
   </si>
   <si>
-    <t>Login_033</t>
+    <t>Login_034</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Tab"键</t>
   </si>
   <si>
-    <t>Login_034</t>
+    <t>Login_035</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Enter"键</t>
   </si>
   <si>
-    <t>Login_035</t>
+    <t>Login_036</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Shift"键</t>
   </si>
   <si>
-    <t>Login_036</t>
+    <t>Login_037</t>
   </si>
   <si>
     <t>键盘操作可行性验证，"Backspace"键</t>
   </si>
   <si>
-    <t>Login_037</t>
+    <t>Login_038</t>
   </si>
   <si>
     <t>键盘操作可行性验证，空格键</t>
   </si>
   <si>
-    <t>Login_038</t>
+    <t>Login_039</t>
   </si>
   <si>
     <t>点击登录</t>
   </si>
   <si>
-    <t>Login_039</t>
+    <t>Login_040</t>
   </si>
   <si>
     <t>文本框合法性验证，输入账号刷新页面</t>
   </si>
   <si>
-    <t>Login_040</t>
+    <t>Login_041</t>
   </si>
   <si>
     <t>文本框合法性验证，输入密码刷新页面</t>
   </si>
   <si>
-    <t>Login_041</t>
+    <t>Login_042</t>
   </si>
   <si>
     <t>文本框合法性验证，输入账号密码刷新页面</t>
   </si>
   <si>
-    <t>Login_042</t>
+    <t>Login_043</t>
   </si>
   <si>
     <t>密码安全性验证，后台储存密码加密</t>
@@ -320,73 +327,73 @@
     <t>安全性测试</t>
   </si>
   <si>
-    <t>Login_043</t>
+    <t>Login_044</t>
   </si>
   <si>
     <t>密码安全性验证，网络传输密码加密</t>
   </si>
   <si>
-    <t>Login_044</t>
+    <t>Login_045</t>
   </si>
   <si>
     <t>密码安全性验证，间隔一段时间重新输入密码</t>
   </si>
   <si>
-    <t>Login_045</t>
+    <t>Login_046</t>
   </si>
   <si>
     <t>密码安全性验证，复制粘贴密码</t>
   </si>
   <si>
-    <t>Login_046</t>
+    <t>Login_047</t>
   </si>
   <si>
     <t>重定向安全性验证，直接输入登录后的地址</t>
   </si>
   <si>
-    <t>Login_047</t>
+    <t>Login_048</t>
   </si>
   <si>
     <t>密码安全性验证，在源码中查看输入密码</t>
   </si>
   <si>
-    <t>Login_048</t>
+    <t>Login_049</t>
   </si>
   <si>
     <t>账号安全性验证，SQL注入攻击</t>
   </si>
   <si>
-    <t>Login_049</t>
+    <t>Login_050</t>
   </si>
   <si>
     <t>密码安全性验证，SQL注入攻击</t>
   </si>
   <si>
-    <t>Login_050</t>
+    <t>Login_051</t>
   </si>
   <si>
     <t>账号安全性验证，XSS跨站脚本攻击</t>
   </si>
   <si>
-    <t>Login_051</t>
+    <t>Login_052</t>
   </si>
   <si>
     <t>密码安全性验证，XSS跨站脚本攻击</t>
   </si>
   <si>
-    <t>Login_052</t>
+    <t>Login_053</t>
   </si>
   <si>
     <t>登录安全性验证，多次登录失败，暴力破解</t>
   </si>
   <si>
-    <t>Login_053</t>
+    <t>Login_054</t>
   </si>
   <si>
     <t>登录安全性验证，多终端登录同一个用户</t>
   </si>
   <si>
-    <t>Login_054</t>
+    <t>Login_055</t>
   </si>
   <si>
     <t>登录页面验证，打开登录页面响应时间少于3秒</t>
@@ -395,49 +402,49 @@
     <t>性能测试</t>
   </si>
   <si>
-    <t>Login_055</t>
+    <t>Login_056</t>
   </si>
   <si>
     <t>登录时间验证，单用户登录响应时间少于3秒</t>
   </si>
   <si>
-    <t>Login_056</t>
+    <t>Login_057</t>
   </si>
   <si>
     <t>登录时间验证，单用户登录响应时间少于5秒</t>
   </si>
   <si>
-    <t>Login_057</t>
+    <t>Login_058</t>
   </si>
   <si>
     <t>登录时间验证，单用户登录响应时间大于8秒</t>
   </si>
   <si>
-    <t>Login_058</t>
+    <t>Login_059</t>
   </si>
   <si>
     <t>登录时间验证，多用户登录响应时间小于5秒</t>
   </si>
   <si>
-    <t>Login_059</t>
+    <t>Login_060</t>
   </si>
   <si>
     <t>高并发场景下服务端的监控指标是否符合预期</t>
   </si>
   <si>
-    <t>Login_060</t>
+    <t>Login_061</t>
   </si>
   <si>
     <t>高集合点并发场景下，是否存在资源死锁和不合理的资源等待</t>
   </si>
   <si>
-    <t>Login_061</t>
+    <t>Login_062</t>
   </si>
   <si>
     <t>长时间大量用户连续登录和登出，服务器端是否存在内存泄漏</t>
   </si>
   <si>
-    <t>Login_062</t>
+    <t>Login_063</t>
   </si>
   <si>
     <t>不同浏览器下，验证登录页面的显示以及功能正确性</t>
@@ -446,13 +453,13 @@
     <t>兼容性测试</t>
   </si>
   <si>
-    <t>Login_063</t>
+    <t>Login_064</t>
   </si>
   <si>
     <t>相同浏览器的不同版本下，验证登录页面的显示以及功能正确性</t>
   </si>
   <si>
-    <t>Login_064</t>
+    <t>Login_065</t>
   </si>
   <si>
     <t>不同分辨率的界面下，验证登录页面的显示以及功能正确性</t>
@@ -461,157 +468,2503 @@
     <t>信息学生查询</t>
   </si>
   <si>
-    <t>search_001</t>
+    <t>Search_001</t>
   </si>
   <si>
     <t>查询学生信息</t>
   </si>
   <si>
+    <t>链接正确性验证，查看链接地址</t>
+  </si>
+  <si>
+    <t>Search_002</t>
+  </si>
+  <si>
     <t>页面显示验证，点击专业选择</t>
   </si>
   <si>
+    <t>Search_003</t>
+  </si>
+  <si>
     <t>页面显示验证，点击年级选择</t>
   </si>
   <si>
+    <t>Search_004</t>
+  </si>
+  <si>
     <t>页面显示验证，点击查询</t>
   </si>
   <si>
+    <t>Search_005</t>
+  </si>
+  <si>
     <t>页面显示验证，点击返回</t>
   </si>
   <si>
+    <t>Search_006</t>
+  </si>
+  <si>
     <t>页面显示验证，选择专业</t>
   </si>
   <si>
+    <t>Search_007</t>
+  </si>
+  <si>
     <t>页面显示验证，选择年级</t>
   </si>
   <si>
+    <t>Search_008</t>
+  </si>
+  <si>
     <t>查询功能验证，选择专业，点击查询</t>
   </si>
   <si>
+    <t>Search_009</t>
+  </si>
+  <si>
     <t>查询功能验证，选择年级，点击查询</t>
   </si>
   <si>
+    <t>Search_010</t>
+  </si>
+  <si>
     <t>选择框功能验证，随机选择专业</t>
   </si>
   <si>
+    <t>Search_011</t>
+  </si>
+  <si>
+    <t>Search_012</t>
+  </si>
+  <si>
     <t>返回功能验证，点击返回</t>
   </si>
   <si>
+    <t>Search_013</t>
+  </si>
+  <si>
     <t>综合查询验证，选择专业和年级，点击查询</t>
   </si>
   <si>
+    <t>Search_014</t>
+  </si>
+  <si>
     <t>查询功能验证，查询全部，再查询专业</t>
   </si>
   <si>
+    <t>Search_015</t>
+  </si>
+  <si>
     <t>查询功能验证，查询全部，再查询年级</t>
   </si>
   <si>
+    <t>Search_016</t>
+  </si>
+  <si>
     <t>查询功能验证，查询专业，再查询全部</t>
   </si>
   <si>
+    <t>Search_017</t>
+  </si>
+  <si>
     <t>查询功能验证，查询年级，再查询专业</t>
   </si>
   <si>
+    <t>Search_018</t>
+  </si>
+  <si>
     <t>查询功能验证，查询专业，再查询其他专业</t>
   </si>
   <si>
+    <t>Search_019</t>
+  </si>
+  <si>
     <t>查询功能验证，查询年级，再查询其他年级</t>
   </si>
   <si>
+    <t>Search_020</t>
+  </si>
+  <si>
     <t>查询功能验证，查询专业和年级，再查询其他专业</t>
   </si>
   <si>
+    <t>Search_021</t>
+  </si>
+  <si>
     <t>查询功能验证，查询专业和年级，再查询其他年级</t>
   </si>
   <si>
+    <t>Search_022</t>
+  </si>
+  <si>
     <t>查询功能验证，多次查询专业</t>
   </si>
   <si>
+    <t>Search_023</t>
+  </si>
+  <si>
     <t>查询功能验证，多次查询年级</t>
   </si>
   <si>
+    <t>Search_024</t>
+  </si>
+  <si>
     <t>查询功能验证，多次查询全部</t>
   </si>
   <si>
+    <t>Search_025</t>
+  </si>
+  <si>
     <t>选择框验证，查询专业，选择框重置</t>
   </si>
   <si>
+    <t>Search_026</t>
+  </si>
+  <si>
     <t>选择框验证，查询年级，选择框重置</t>
   </si>
   <si>
+    <t>Search_027</t>
+  </si>
+  <si>
     <t>页面刷新验证，刷新页面选择重置</t>
   </si>
   <si>
+    <t>Search_028</t>
+  </si>
+  <si>
     <t>页面信息验证，查询全部</t>
   </si>
   <si>
+    <t>Search_029</t>
+  </si>
+  <si>
     <t>页面信息验证，查询专业</t>
   </si>
   <si>
+    <t>Search_030</t>
+  </si>
+  <si>
     <t>页面信息验证，查询年级</t>
   </si>
   <si>
+    <t>Search_031</t>
+  </si>
+  <si>
+    <t>页面有效性验证，隔一段时间刷新页面</t>
+  </si>
+  <si>
+    <t>Search_032</t>
+  </si>
+  <si>
+    <t>Search_033</t>
+  </si>
+  <si>
+    <t>Search_034</t>
+  </si>
+  <si>
+    <t>Search_035</t>
+  </si>
+  <si>
+    <t>Search_036</t>
+  </si>
+  <si>
+    <t>Search_037</t>
+  </si>
+  <si>
+    <t>学生信息页面验证，打开学生信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Search_038</t>
+  </si>
+  <si>
+    <t>学生信息时间验证，单用户打开学生信息响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Search_039</t>
+  </si>
+  <si>
+    <t>学生信息时间验证，单用户打开学生信息响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Search_040</t>
+  </si>
+  <si>
+    <t>学生信息时间验证，单用户打开学生信息响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Search_041</t>
+  </si>
+  <si>
+    <t>学生信息时间验证，多用户打开学生信息响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Search_042</t>
+  </si>
+  <si>
+    <t>Search_043</t>
+  </si>
+  <si>
+    <t>Search_044</t>
+  </si>
+  <si>
+    <t>长时间大量用户连续操作，服务器端是否存在内存泄漏</t>
+  </si>
+  <si>
+    <t>Search_045</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证学生信息的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Search_046</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证学生信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Search_047</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证学生信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_001</t>
+  </si>
+  <si>
     <t>学生个人信息</t>
   </si>
   <si>
     <t>学号验证</t>
   </si>
   <si>
+    <t>Student_002</t>
+  </si>
+  <si>
     <t>姓名验证</t>
   </si>
   <si>
+    <t>Student_003</t>
+  </si>
+  <si>
     <t>年级验证</t>
   </si>
   <si>
+    <t>Student_004</t>
+  </si>
+  <si>
     <t>专业验证</t>
   </si>
   <si>
+    <t>Student_005</t>
+  </si>
+  <si>
     <t>点击基础信息</t>
   </si>
   <si>
+    <t>Student_006</t>
+  </si>
+  <si>
     <t>点击毕业设计</t>
   </si>
   <si>
+    <t>Student_007</t>
+  </si>
+  <si>
     <t>点击实习信息</t>
   </si>
   <si>
+    <t>Student_008</t>
+  </si>
+  <si>
     <t>点击工作信息</t>
   </si>
   <si>
+    <t>Student_009</t>
+  </si>
+  <si>
     <t>点击项目信息</t>
   </si>
   <si>
+    <t>Student_010</t>
+  </si>
+  <si>
     <t>点击交流建议</t>
   </si>
   <si>
+    <t>Student_011</t>
+  </si>
+  <si>
     <t>点击工作评价</t>
   </si>
   <si>
+    <t>Student_012</t>
+  </si>
+  <si>
     <t>点击综合评价</t>
   </si>
   <si>
+    <t>Student_013</t>
+  </si>
+  <si>
     <t>基础信息正确性验证</t>
   </si>
   <si>
+    <t>Student_014</t>
+  </si>
+  <si>
     <t>毕业设计信息正确性验证</t>
   </si>
   <si>
+    <t>Student_015</t>
+  </si>
+  <si>
     <t>实习信息正确性验证</t>
   </si>
   <si>
+    <t>Student_016</t>
+  </si>
+  <si>
     <t>工作信息正确性验证</t>
   </si>
   <si>
+    <t>Student_017</t>
+  </si>
+  <si>
     <t>项目信息正确性验证</t>
   </si>
   <si>
+    <t>Student_018</t>
+  </si>
+  <si>
     <t>交流建议正确性验证</t>
   </si>
   <si>
+    <t>Student_019</t>
+  </si>
+  <si>
     <t>工作评价正确性验证</t>
   </si>
   <si>
+    <t>Student_020</t>
+  </si>
+  <si>
     <t>综合评价正确性验证</t>
+  </si>
+  <si>
+    <t>Student_021</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看基础信息</t>
+  </si>
+  <si>
+    <t>Student_022</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看毕业设计</t>
+  </si>
+  <si>
+    <t>Student_023</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看实习信息</t>
+  </si>
+  <si>
+    <t>Student_024</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看工作信息</t>
+  </si>
+  <si>
+    <t>Student_025</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看项目信息</t>
+  </si>
+  <si>
+    <t>Student_026</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看交流建议</t>
+  </si>
+  <si>
+    <t>Student_027</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看工作评价</t>
+  </si>
+  <si>
+    <t>Student_028</t>
+  </si>
+  <si>
+    <t>学生信息正确性验证，查看综合评价</t>
+  </si>
+  <si>
+    <t>Student_029</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看基础信息链接地址</t>
+  </si>
+  <si>
+    <t>Student_030</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看毕业设计链接地址</t>
+  </si>
+  <si>
+    <t>Student_031</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看实习信息链接地址</t>
+  </si>
+  <si>
+    <t>Student_032</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看工作信息链接地址</t>
+  </si>
+  <si>
+    <t>Student_033</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看交流建议链接地址</t>
+  </si>
+  <si>
+    <t>Student_034</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看工作评价链接地址</t>
+  </si>
+  <si>
+    <t>Student_035</t>
+  </si>
+  <si>
+    <t>链接正确性验证，查看综合评价链接地址</t>
+  </si>
+  <si>
+    <t>Student_036</t>
+  </si>
+  <si>
+    <t>基础信息页面验证，打开基础信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_037</t>
+  </si>
+  <si>
+    <t>基础信息时间验证，单用户打开基础信息响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_038</t>
+  </si>
+  <si>
+    <t>基础信息时间验证，单用户打开基础信息响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_039</t>
+  </si>
+  <si>
+    <t>基础信息时间验证，单用户打开基础信息响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_040</t>
+  </si>
+  <si>
+    <t>基础信息时间验证，多用户打开基础信息响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_041</t>
+  </si>
+  <si>
+    <t>Student_042</t>
+  </si>
+  <si>
+    <t>Student_043</t>
+  </si>
+  <si>
+    <t>Student_044</t>
+  </si>
+  <si>
+    <t>毕业设计页面验证，打开毕业设计页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_045</t>
+  </si>
+  <si>
+    <t>毕业设计页面时间验证，单用户打开毕业设计页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_046</t>
+  </si>
+  <si>
+    <t>毕业设计页面时间验证，单用户打开毕业设计页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_047</t>
+  </si>
+  <si>
+    <t>毕业设计页面时间验证，单用户打开毕业设计页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_048</t>
+  </si>
+  <si>
+    <t>毕业设计页面时间验证，多用户打开毕业设计页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_049</t>
+  </si>
+  <si>
+    <t>Student_050</t>
+  </si>
+  <si>
+    <t>Student_051</t>
+  </si>
+  <si>
+    <t>Student_052</t>
+  </si>
+  <si>
+    <t>实习信息页面验证，打开实习信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_053</t>
+  </si>
+  <si>
+    <t>实习信息页面时间验证，单用户打开实习信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_054</t>
+  </si>
+  <si>
+    <t>实习信息页面时间验证，单用户打开实习信息页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_055</t>
+  </si>
+  <si>
+    <t>实习信息页面时间验证，单用户打开实习信息页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_056</t>
+  </si>
+  <si>
+    <t>实习信息页面时间验证，多用户打开实习信息页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_057</t>
+  </si>
+  <si>
+    <t>Student_058</t>
+  </si>
+  <si>
+    <t>Student_059</t>
+  </si>
+  <si>
+    <t>Student_060</t>
+  </si>
+  <si>
+    <t>工作信息页面验证，打开工作信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_061</t>
+  </si>
+  <si>
+    <t>工作信息页面时间验证，单用户打开工作信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_062</t>
+  </si>
+  <si>
+    <t>工作信息页面时间验证，单用户打开工作信息页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_063</t>
+  </si>
+  <si>
+    <t>工作信息页面时间验证，单用户打开工作信息页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_064</t>
+  </si>
+  <si>
+    <t>工作信息页面时间验证，多用户打开工作信息页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_065</t>
+  </si>
+  <si>
+    <t>Student_066</t>
+  </si>
+  <si>
+    <t>Student_067</t>
+  </si>
+  <si>
+    <t>Student_068</t>
+  </si>
+  <si>
+    <t>项目信息页面验证，打开项目信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_069</t>
+  </si>
+  <si>
+    <t>项目信息页面时间验证，单用户打开项目信息页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_070</t>
+  </si>
+  <si>
+    <t>项目信息页面时间验证，单用户打开项目信息页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_071</t>
+  </si>
+  <si>
+    <t>项目信息页面时间验证，单用户打开项目信息页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_072</t>
+  </si>
+  <si>
+    <t>项目信息页面时间验证，多用户打开项目信息页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_073</t>
+  </si>
+  <si>
+    <t>Student_074</t>
+  </si>
+  <si>
+    <t>Student_075</t>
+  </si>
+  <si>
+    <t>Student_076</t>
+  </si>
+  <si>
+    <t>交流建议页面验证，打开交流建议页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_077</t>
+  </si>
+  <si>
+    <t>交流建议页面时间验证，单用户打开交流建议页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_078</t>
+  </si>
+  <si>
+    <t>交流建议页面时间验证，单用户打开交流建议页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_079</t>
+  </si>
+  <si>
+    <t>交流建议页面时间验证，单用户打开交流建议页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_080</t>
+  </si>
+  <si>
+    <t>交流建议页面时间验证，多用户打开交流建议页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_081</t>
+  </si>
+  <si>
+    <t>Student_082</t>
+  </si>
+  <si>
+    <t>Student_083</t>
+  </si>
+  <si>
+    <t>Student_084</t>
+  </si>
+  <si>
+    <t>工作评价页面验证，打开工作评价页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_085</t>
+  </si>
+  <si>
+    <t>工作评价页面时间验证，单用户打开工作评价页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_086</t>
+  </si>
+  <si>
+    <t>工作评价页面时间验证，单用户打开工作评价页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_087</t>
+  </si>
+  <si>
+    <t>工作评价页面时间验证，单用户打开工作评价页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_088</t>
+  </si>
+  <si>
+    <t>工作评价页面时间验证，多用户打开工作评价页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_089</t>
+  </si>
+  <si>
+    <t>Student_090</t>
+  </si>
+  <si>
+    <t>Student_091</t>
+  </si>
+  <si>
+    <t>Student_092</t>
+  </si>
+  <si>
+    <t>综合评价页面验证，打开综合评价页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_093</t>
+  </si>
+  <si>
+    <t>综合评价页面时间验证，单用户打开综合评价页面响应时间少于3秒</t>
+  </si>
+  <si>
+    <t>Student_094</t>
+  </si>
+  <si>
+    <t>综合评价页面时间验证，单用户打开综合评价页面响应时间少于5秒</t>
+  </si>
+  <si>
+    <t>Student_095</t>
+  </si>
+  <si>
+    <t>综合评价页面时间验证，单用户打开综合评价页面响应时间大于8秒</t>
+  </si>
+  <si>
+    <t>Student_096</t>
+  </si>
+  <si>
+    <t>综合评价页面时间验证，多用户打开综合评价页面响应时间小于5秒</t>
+  </si>
+  <si>
+    <t>Student_097</t>
+  </si>
+  <si>
+    <t>Student_098</t>
+  </si>
+  <si>
+    <t>Student_099</t>
+  </si>
+  <si>
+    <t>Student_100</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证基础信息的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_101</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证基础信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_102</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证基础信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_103</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证毕业设计页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_104</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证毕业设计页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_105</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证毕业设计页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_106</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证实习信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_107</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证实习信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_108</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证实习信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_109</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证工作信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_110</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证工作信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_111</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证工作信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_112</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证项目信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_113</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证项目信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_114</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证项目信息页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_115</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证交流建议页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_116</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证交流建议页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_117</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证交流建议页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_118</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证工作评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_119</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证工作评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_120</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证工作评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_121</t>
+  </si>
+  <si>
+    <t>不同浏览器下，验证综合评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_122</t>
+  </si>
+  <si>
+    <t>相同浏览器的不同版本下，验证综合评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>Student_123</t>
+  </si>
+  <si>
+    <t>不同分辨率的界面下，验证综合评价页面的显示以及功能正确性</t>
+  </si>
+  <si>
+    <t>学生信息管理</t>
+  </si>
+  <si>
+    <t>Formation_001</t>
+  </si>
+  <si>
+    <t>学生信息页面</t>
+  </si>
+  <si>
+    <t>Formation_002</t>
+  </si>
+  <si>
+    <t>Formation_003</t>
+  </si>
+  <si>
+    <t>Formation_004</t>
+  </si>
+  <si>
+    <t>Formation_005</t>
+  </si>
+  <si>
+    <t>Formation_006</t>
+  </si>
+  <si>
+    <t>Formation_007</t>
+  </si>
+  <si>
+    <t>Formation_008</t>
+  </si>
+  <si>
+    <t>Formation_009</t>
+  </si>
+  <si>
+    <t>Formation_010</t>
+  </si>
+  <si>
+    <t>Formation_011</t>
+  </si>
+  <si>
+    <t>Formation_012</t>
+  </si>
+  <si>
+    <t>Formation_013</t>
+  </si>
+  <si>
+    <t>Formation_014</t>
+  </si>
+  <si>
+    <t>Formation_015</t>
+  </si>
+  <si>
+    <t>Formation_016</t>
+  </si>
+  <si>
+    <t>Formation_017</t>
+  </si>
+  <si>
+    <t>Formation_018</t>
+  </si>
+  <si>
+    <t>Formation_019</t>
+  </si>
+  <si>
+    <t>Formation_020</t>
+  </si>
+  <si>
+    <t>Formation_021</t>
+  </si>
+  <si>
+    <t>Formation_022</t>
+  </si>
+  <si>
+    <t>Formation_023</t>
+  </si>
+  <si>
+    <t>Formation_024</t>
+  </si>
+  <si>
+    <t>Formation_025</t>
+  </si>
+  <si>
+    <t>Formation_026</t>
+  </si>
+  <si>
+    <t>Formation_027</t>
+  </si>
+  <si>
+    <t>Formation_028</t>
+  </si>
+  <si>
+    <t>Formation_029</t>
+  </si>
+  <si>
+    <t>Formation_030</t>
+  </si>
+  <si>
+    <t>Formation_031</t>
+  </si>
+  <si>
+    <t>Formation_032</t>
+  </si>
+  <si>
+    <t>Formation_033</t>
+  </si>
+  <si>
+    <t>Formation_034</t>
+  </si>
+  <si>
+    <t>Formation_035</t>
+  </si>
+  <si>
+    <t>Formation_036</t>
+  </si>
+  <si>
+    <t>Formation_037</t>
+  </si>
+  <si>
+    <t>Formation_038</t>
+  </si>
+  <si>
+    <t>Formation_039</t>
+  </si>
+  <si>
+    <t>Formation_040</t>
+  </si>
+  <si>
+    <t>Formation_041</t>
+  </si>
+  <si>
+    <t>Formation_042</t>
+  </si>
+  <si>
+    <t>Formation_043</t>
+  </si>
+  <si>
+    <t>Formation_044</t>
+  </si>
+  <si>
+    <t>Formation_045</t>
+  </si>
+  <si>
+    <t>Formation_046</t>
+  </si>
+  <si>
+    <t>Formation_047</t>
+  </si>
+  <si>
+    <t>Manage_001</t>
+  </si>
+  <si>
+    <t>学生个人信息管理</t>
+  </si>
+  <si>
+    <t>Manage_002</t>
+  </si>
+  <si>
+    <t>Manage_003</t>
+  </si>
+  <si>
+    <t>Manage_004</t>
+  </si>
+  <si>
+    <t>Manage_005</t>
+  </si>
+  <si>
+    <t>Manage_006</t>
+  </si>
+  <si>
+    <t>Manage_007</t>
+  </si>
+  <si>
+    <t>Manage_008</t>
+  </si>
+  <si>
+    <t>Manage_009</t>
+  </si>
+  <si>
+    <t>Manage_010</t>
+  </si>
+  <si>
+    <t>Manage_011</t>
+  </si>
+  <si>
+    <t>Manage_012</t>
+  </si>
+  <si>
+    <t>Manage_013</t>
+  </si>
+  <si>
+    <t>点击删除按钮</t>
+  </si>
+  <si>
+    <t>Manage_014</t>
+  </si>
+  <si>
+    <t>Manage_015</t>
+  </si>
+  <si>
+    <t>Manage_016</t>
+  </si>
+  <si>
+    <t>Manage_017</t>
+  </si>
+  <si>
+    <t>Manage_018</t>
+  </si>
+  <si>
+    <t>Manage_019</t>
+  </si>
+  <si>
+    <t>Manage_020</t>
+  </si>
+  <si>
+    <t>Manage_021</t>
+  </si>
+  <si>
+    <t>Manage_022</t>
+  </si>
+  <si>
+    <t>Manage_023</t>
+  </si>
+  <si>
+    <t>Manage_024</t>
+  </si>
+  <si>
+    <t>Manage_025</t>
+  </si>
+  <si>
+    <t>Manage_026</t>
+  </si>
+  <si>
+    <t>Manage_027</t>
+  </si>
+  <si>
+    <t>Manage_028</t>
+  </si>
+  <si>
+    <t>Manage_029</t>
+  </si>
+  <si>
+    <t>Manage_030</t>
+  </si>
+  <si>
+    <t>Manage_031</t>
+  </si>
+  <si>
+    <t>Manage_032</t>
+  </si>
+  <si>
+    <t>Manage_033</t>
+  </si>
+  <si>
+    <t>Manage_034</t>
+  </si>
+  <si>
+    <t>Manage_035</t>
+  </si>
+  <si>
+    <t>Manage_036</t>
+  </si>
+  <si>
+    <t>Manage_037</t>
+  </si>
+  <si>
+    <t>Manage_038</t>
+  </si>
+  <si>
+    <t>Manage_039</t>
+  </si>
+  <si>
+    <t>Manage_040</t>
+  </si>
+  <si>
+    <t>Manage_041</t>
+  </si>
+  <si>
+    <t>Manage_042</t>
+  </si>
+  <si>
+    <t>Manage_043</t>
+  </si>
+  <si>
+    <t>Manage_044</t>
+  </si>
+  <si>
+    <t>Manage_045</t>
+  </si>
+  <si>
+    <t>Manage_046</t>
+  </si>
+  <si>
+    <t>Manage_047</t>
+  </si>
+  <si>
+    <t>Manage_048</t>
+  </si>
+  <si>
+    <t>Manage_049</t>
+  </si>
+  <si>
+    <t>Manage_050</t>
+  </si>
+  <si>
+    <t>Manage_051</t>
+  </si>
+  <si>
+    <t>Manage_052</t>
+  </si>
+  <si>
+    <t>Manage_053</t>
+  </si>
+  <si>
+    <t>Manage_054</t>
+  </si>
+  <si>
+    <t>Manage_055</t>
+  </si>
+  <si>
+    <t>Manage_056</t>
+  </si>
+  <si>
+    <t>Manage_057</t>
+  </si>
+  <si>
+    <t>Manage_058</t>
+  </si>
+  <si>
+    <t>Manage_059</t>
+  </si>
+  <si>
+    <t>Manage_060</t>
+  </si>
+  <si>
+    <t>Manage_061</t>
+  </si>
+  <si>
+    <t>Manage_062</t>
+  </si>
+  <si>
+    <t>Manage_063</t>
+  </si>
+  <si>
+    <t>Manage_064</t>
+  </si>
+  <si>
+    <t>Manage_065</t>
+  </si>
+  <si>
+    <t>Manage_066</t>
+  </si>
+  <si>
+    <t>Manage_067</t>
+  </si>
+  <si>
+    <t>Manage_068</t>
+  </si>
+  <si>
+    <t>Manage_069</t>
+  </si>
+  <si>
+    <t>Manage_070</t>
+  </si>
+  <si>
+    <t>Manage_071</t>
+  </si>
+  <si>
+    <t>Manage_072</t>
+  </si>
+  <si>
+    <t>Manage_073</t>
+  </si>
+  <si>
+    <t>Manage_074</t>
+  </si>
+  <si>
+    <t>Manage_075</t>
+  </si>
+  <si>
+    <t>Manage_076</t>
+  </si>
+  <si>
+    <t>Manage_077</t>
+  </si>
+  <si>
+    <t>Manage_078</t>
+  </si>
+  <si>
+    <t>Manage_079</t>
+  </si>
+  <si>
+    <t>Manage_080</t>
+  </si>
+  <si>
+    <t>Manage_081</t>
+  </si>
+  <si>
+    <t>Manage_082</t>
+  </si>
+  <si>
+    <t>Manage_083</t>
+  </si>
+  <si>
+    <t>Manage_084</t>
+  </si>
+  <si>
+    <t>Manage_085</t>
+  </si>
+  <si>
+    <t>Manage_086</t>
+  </si>
+  <si>
+    <t>Manage_087</t>
+  </si>
+  <si>
+    <t>Manage_088</t>
+  </si>
+  <si>
+    <t>Manage_089</t>
+  </si>
+  <si>
+    <t>Manage_090</t>
+  </si>
+  <si>
+    <t>Manage_091</t>
+  </si>
+  <si>
+    <t>Manage_092</t>
+  </si>
+  <si>
+    <t>Manage_093</t>
+  </si>
+  <si>
+    <t>Manage_094</t>
+  </si>
+  <si>
+    <t>Manage_095</t>
+  </si>
+  <si>
+    <t>Manage_096</t>
+  </si>
+  <si>
+    <t>Manage_097</t>
+  </si>
+  <si>
+    <t>Manage_098</t>
+  </si>
+  <si>
+    <t>Manage_099</t>
+  </si>
+  <si>
+    <t>Manage_100</t>
+  </si>
+  <si>
+    <t>Manage_101</t>
+  </si>
+  <si>
+    <t>Manage_102</t>
+  </si>
+  <si>
+    <t>Manage_103</t>
+  </si>
+  <si>
+    <t>Manage_104</t>
+  </si>
+  <si>
+    <t>Manage_105</t>
+  </si>
+  <si>
+    <t>Manage_106</t>
+  </si>
+  <si>
+    <t>Manage_107</t>
+  </si>
+  <si>
+    <t>Manage_108</t>
+  </si>
+  <si>
+    <t>Manage_109</t>
+  </si>
+  <si>
+    <t>Manage_110</t>
+  </si>
+  <si>
+    <t>Manage_111</t>
+  </si>
+  <si>
+    <t>Manage_112</t>
+  </si>
+  <si>
+    <t>Manage_113</t>
+  </si>
+  <si>
+    <t>Manage_114</t>
+  </si>
+  <si>
+    <t>Manage_115</t>
+  </si>
+  <si>
+    <t>Manage_116</t>
+  </si>
+  <si>
+    <t>Manage_117</t>
+  </si>
+  <si>
+    <t>Manage_118</t>
+  </si>
+  <si>
+    <t>Manage_119</t>
+  </si>
+  <si>
+    <t>Manage_120</t>
+  </si>
+  <si>
+    <t>Manage_121</t>
+  </si>
+  <si>
+    <t>Manage_122</t>
+  </si>
+  <si>
+    <t>Manage_123</t>
+  </si>
+  <si>
+    <t>Manage_124</t>
+  </si>
+  <si>
+    <t>Basic_001</t>
+  </si>
+  <si>
+    <t>基础信息页面</t>
+  </si>
+  <si>
+    <t>输入学号</t>
+  </si>
+  <si>
+    <t>Basic_002</t>
+  </si>
+  <si>
+    <t>输入姓名</t>
+  </si>
+  <si>
+    <t>Basic_003</t>
+  </si>
+  <si>
+    <t>选择专业</t>
+  </si>
+  <si>
+    <t>Basic_004</t>
+  </si>
+  <si>
+    <t>选择年级</t>
+  </si>
+  <si>
+    <t>Basic_005</t>
+  </si>
+  <si>
+    <t>输入身份证</t>
+  </si>
+  <si>
+    <t>Basic_006</t>
+  </si>
+  <si>
+    <t>输入邮箱</t>
+  </si>
+  <si>
+    <t>Basic_007</t>
+  </si>
+  <si>
+    <t>输入班级</t>
+  </si>
+  <si>
+    <t>Basic_008</t>
+  </si>
+  <si>
+    <t>输入导师</t>
+  </si>
+  <si>
+    <t>Basic_009</t>
+  </si>
+  <si>
+    <t>输入辅导员</t>
+  </si>
+  <si>
+    <t>Basic_010</t>
+  </si>
+  <si>
+    <t>点击性别</t>
+  </si>
+  <si>
+    <t>Basic_011</t>
+  </si>
+  <si>
+    <t>点击修改</t>
+  </si>
+  <si>
+    <t>Basic_012</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号过长</t>
+  </si>
+  <si>
+    <t>Basic_013</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号过短</t>
+  </si>
+  <si>
+    <t>Basic_014</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为空</t>
+  </si>
+  <si>
+    <t>Basic_015</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_016</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_017</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_018</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_019</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为字母</t>
+  </si>
+  <si>
+    <t>Basic_020</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_021</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为数字</t>
+  </si>
+  <si>
+    <t>Basic_022</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_023</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_024</t>
+  </si>
+  <si>
+    <t>学号合法性验证，学号为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_025</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名过长</t>
+  </si>
+  <si>
+    <t>Basic_026</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名过短</t>
+  </si>
+  <si>
+    <t>Basic_027</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为空</t>
+  </si>
+  <si>
+    <t>Basic_028</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_029</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_030</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_031</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_032</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为字母</t>
+  </si>
+  <si>
+    <t>Basic_033</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_034</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为数字</t>
+  </si>
+  <si>
+    <t>Basic_035</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_036</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为中文，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_037</t>
+  </si>
+  <si>
+    <t>姓名合法性验证，姓名为中文，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_038</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证过长</t>
+  </si>
+  <si>
+    <t>Basic_039</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证过短</t>
+  </si>
+  <si>
+    <t>Basic_040</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为空</t>
+  </si>
+  <si>
+    <t>Basic_041</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_042</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_043</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_044</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_045</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为字母</t>
+  </si>
+  <si>
+    <t>Basic_046</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_047</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为数字</t>
+  </si>
+  <si>
+    <t>Basic_048</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_049</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_050</t>
+  </si>
+  <si>
+    <t>身份证合法性验证，身份证为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_051</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱过长</t>
+  </si>
+  <si>
+    <t>Basic_052</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱过短</t>
+  </si>
+  <si>
+    <t>Basic_053</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为空</t>
+  </si>
+  <si>
+    <t>Basic_054</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_055</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_056</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_057</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_058</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为字母</t>
+  </si>
+  <si>
+    <t>Basic_059</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_060</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为数字</t>
+  </si>
+  <si>
+    <t>Basic_061</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_062</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_063</t>
+  </si>
+  <si>
+    <t>邮箱合法性验证，邮箱为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_064</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级过长</t>
+  </si>
+  <si>
+    <t>Basic_065</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级过短</t>
+  </si>
+  <si>
+    <t>Basic_066</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为空</t>
+  </si>
+  <si>
+    <t>Basic_067</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_068</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_069</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_070</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_071</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为字母</t>
+  </si>
+  <si>
+    <t>Basic_072</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_073</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为数字</t>
+  </si>
+  <si>
+    <t>Basic_074</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_075</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_076</t>
+  </si>
+  <si>
+    <t>班级合法性验证，班级为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_077</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字过长</t>
+  </si>
+  <si>
+    <t>Basic_078</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字过短</t>
+  </si>
+  <si>
+    <t>Basic_079</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为空</t>
+  </si>
+  <si>
+    <t>Basic_080</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_081</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_082</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_083</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_084</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为字母</t>
+  </si>
+  <si>
+    <t>Basic_085</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_086</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为数字</t>
+  </si>
+  <si>
+    <t>Basic_087</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_088</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_089</t>
+  </si>
+  <si>
+    <t>导师名字合法性验证，导师名字为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_090</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字过长</t>
+  </si>
+  <si>
+    <t>Basic_091</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字过短</t>
+  </si>
+  <si>
+    <t>Basic_092</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为空</t>
+  </si>
+  <si>
+    <t>Basic_093</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字前面带空格</t>
+  </si>
+  <si>
+    <t>Basic_094</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字中间带空格</t>
+  </si>
+  <si>
+    <t>Basic_095</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字后面带空格</t>
+  </si>
+  <si>
+    <t>Basic_096</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为中文字符</t>
+  </si>
+  <si>
+    <t>Basic_097</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为字母</t>
+  </si>
+  <si>
+    <t>Basic_098</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为特殊字符</t>
+  </si>
+  <si>
+    <t>Basic_099</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为数字</t>
+  </si>
+  <si>
+    <t>Basic_100</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为数字，中文组合</t>
+  </si>
+  <si>
+    <t>Basic_101</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为数字，英文组合</t>
+  </si>
+  <si>
+    <t>Basic_102</t>
+  </si>
+  <si>
+    <t>辅导员名字合法性验证，辅导员名字为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>Basic_103</t>
+  </si>
+  <si>
+    <t>选择框合法性验证，选择其他专业</t>
+  </si>
+  <si>
+    <t>Basic_104</t>
+  </si>
+  <si>
+    <t>选择框合法性验证，选择其他年级</t>
+  </si>
+  <si>
+    <t>Basic_105</t>
+  </si>
+  <si>
+    <t>选择框合法性验证，选择其他性别</t>
+  </si>
+  <si>
+    <t>Basic_106</t>
+  </si>
+  <si>
+    <t>修改功能验证，不修改内容</t>
+  </si>
+  <si>
+    <t>Basic_107</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改学号</t>
+  </si>
+  <si>
+    <t>Basic_108</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改姓名</t>
+  </si>
+  <si>
+    <t>Basic_109</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改专业</t>
+  </si>
+  <si>
+    <t>Basic_110</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改年级</t>
+  </si>
+  <si>
+    <t>Basic_111</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改身份证号</t>
+  </si>
+  <si>
+    <t>Basic_112</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改邮箱</t>
+  </si>
+  <si>
+    <t>Basic_113</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改班级</t>
+  </si>
+  <si>
+    <t>Basic_114</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改导师</t>
+  </si>
+  <si>
+    <t>Basic_115</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改辅导员</t>
+  </si>
+  <si>
+    <t>Basic_116</t>
+  </si>
+  <si>
+    <t>修改功能验证，修改性别</t>
+  </si>
+  <si>
+    <t>gra_001</t>
+  </si>
+  <si>
+    <t>毕业设计页面</t>
+  </si>
+  <si>
+    <t>输入题目</t>
+  </si>
+  <si>
+    <t>gra_002</t>
+  </si>
+  <si>
+    <t>输入指导老师姓名</t>
+  </si>
+  <si>
+    <t>gra_003</t>
+  </si>
+  <si>
+    <t>输入等级</t>
+  </si>
+  <si>
+    <t>gra_004</t>
+  </si>
+  <si>
+    <t>输入毕业设计内容</t>
+  </si>
+  <si>
+    <t>gra_005</t>
+  </si>
+  <si>
+    <t>gra_006</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目名字过长</t>
+  </si>
+  <si>
+    <t>gra_007</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目过短</t>
+  </si>
+  <si>
+    <t>gra_008</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为空</t>
+  </si>
+  <si>
+    <t>gra_009</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目前面带空格</t>
+  </si>
+  <si>
+    <t>gra_010</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目中间带空格</t>
+  </si>
+  <si>
+    <t>gra_011</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目后面带空格</t>
+  </si>
+  <si>
+    <t>gra_012</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为中文字符</t>
+  </si>
+  <si>
+    <t>gra_013</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为字母</t>
+  </si>
+  <si>
+    <t>gra_014</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为特殊字符</t>
+  </si>
+  <si>
+    <t>gra_015</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为数字</t>
+  </si>
+  <si>
+    <t>gra_016</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为数字，中文组合</t>
+  </si>
+  <si>
+    <t>gra_017</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为数字，英文组合</t>
+  </si>
+  <si>
+    <t>gra_018</t>
+  </si>
+  <si>
+    <t>题目合法性验证，题目为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>gra_019</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名名字过长</t>
+  </si>
+  <si>
+    <t>gra_020</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名过短</t>
+  </si>
+  <si>
+    <t>gra_021</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为空</t>
+  </si>
+  <si>
+    <t>gra_022</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名前面带空格</t>
+  </si>
+  <si>
+    <t>gra_023</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名中间带空格</t>
+  </si>
+  <si>
+    <t>gra_024</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名后面带空格</t>
+  </si>
+  <si>
+    <t>gra_025</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为中文字符</t>
+  </si>
+  <si>
+    <t>gra_026</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为字母</t>
+  </si>
+  <si>
+    <t>gra_027</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为特殊字符</t>
+  </si>
+  <si>
+    <t>gra_028</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为数字</t>
+  </si>
+  <si>
+    <t>gra_029</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为数字，中文组合</t>
+  </si>
+  <si>
+    <t>gra_030</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为数字，英文组合</t>
+  </si>
+  <si>
+    <t>gra_031</t>
+  </si>
+  <si>
+    <t>指导老师姓名合法性验证，指导老师姓名为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>gra_032</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级名字过长</t>
+  </si>
+  <si>
+    <t>gra_033</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级过短</t>
+  </si>
+  <si>
+    <t>gra_034</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为空</t>
+  </si>
+  <si>
+    <t>gra_035</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级前面带空格</t>
+  </si>
+  <si>
+    <t>gra_036</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级中间带空格</t>
+  </si>
+  <si>
+    <t>gra_037</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级后面带空格</t>
+  </si>
+  <si>
+    <t>gra_038</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为中文字符</t>
+  </si>
+  <si>
+    <t>gra_039</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为字母</t>
+  </si>
+  <si>
+    <t>gra_040</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为特殊字符</t>
+  </si>
+  <si>
+    <t>gra_041</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为数字</t>
+  </si>
+  <si>
+    <t>gra_042</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为数字，中文组合</t>
+  </si>
+  <si>
+    <t>gra_043</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为数字，英文组合</t>
+  </si>
+  <si>
+    <t>gra_044</t>
+  </si>
+  <si>
+    <t>等级合法性验证，等级为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>gra_045</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容过长</t>
+  </si>
+  <si>
+    <t>gra_046</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容过短</t>
+  </si>
+  <si>
+    <t>gra_047</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为空</t>
+  </si>
+  <si>
+    <t>gra_048</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容前面带空格</t>
+  </si>
+  <si>
+    <t>gra_049</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容中间带空格</t>
+  </si>
+  <si>
+    <t>gra_050</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容后面带空格</t>
+  </si>
+  <si>
+    <t>gra_051</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为中文字符</t>
+  </si>
+  <si>
+    <t>gra_052</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为字母</t>
+  </si>
+  <si>
+    <t>gra_053</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为特殊字符</t>
+  </si>
+  <si>
+    <t>gra_054</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为数字</t>
+  </si>
+  <si>
+    <t>gra_055</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为数字，中文组合</t>
+  </si>
+  <si>
+    <t>gra_056</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为数字，英文组合</t>
+  </si>
+  <si>
+    <t>gra_057</t>
+  </si>
+  <si>
+    <t>毕业设计内容合法性验证，毕业设计内容为数字，特殊字符组合</t>
+  </si>
+  <si>
+    <t>点击添加</t>
   </si>
 </sst>
 </file>
@@ -1232,11 +3585,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,16 +3960,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="10.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="61.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="63.6666666666667" customWidth="1"/>
+    <col min="5" max="8" width="9.66666666666667" customWidth="1"/>
+    <col min="9" max="10" width="7.66666666666667" customWidth="1"/>
     <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2190,30 +4549,30 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:11">
-      <c r="A43" s="3"/>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:11">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" t="s">
+      <c r="K44" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2225,8 +4584,8 @@
       <c r="D45" t="s">
         <v>102</v>
       </c>
-      <c r="K45" s="2" t="s">
-        <v>98</v>
+      <c r="K45" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2238,8 +4597,8 @@
       <c r="D46" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>98</v>
+      <c r="K46" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2251,8 +4610,8 @@
       <c r="D47" t="s">
         <v>106</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>98</v>
+      <c r="K47" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2264,8 +4623,8 @@
       <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>98</v>
+      <c r="K48" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2277,8 +4636,8 @@
       <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>98</v>
+      <c r="K49" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2290,8 +4649,8 @@
       <c r="D50" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>98</v>
+      <c r="K50" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2303,8 +4662,8 @@
       <c r="D51" t="s">
         <v>114</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>98</v>
+      <c r="K51" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2316,8 +4675,8 @@
       <c r="D52" t="s">
         <v>116</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>98</v>
+      <c r="K52" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2329,8 +4688,8 @@
       <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>98</v>
+      <c r="K53" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2342,47 +4701,47 @@
       <c r="D54" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" spans="1:11">
-      <c r="A55" s="3"/>
+      <c r="K54" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1"/>
       <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:11">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" spans="1:11">
-      <c r="A56" s="3"/>
-      <c r="B56" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:11">
+      <c r="A57" s="5"/>
       <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>123</v>
+      <c r="K57" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2394,8 +4753,8 @@
       <c r="D58" t="s">
         <v>129</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>123</v>
+      <c r="K58" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2407,8 +4766,8 @@
       <c r="D59" t="s">
         <v>131</v>
       </c>
-      <c r="K59" s="2" t="s">
-        <v>123</v>
+      <c r="K59" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2420,8 +4779,8 @@
       <c r="D60" t="s">
         <v>133</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>123</v>
+      <c r="K60" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2433,8 +4792,8 @@
       <c r="D61" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>123</v>
+      <c r="K61" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2446,34 +4805,34 @@
       <c r="D62" t="s">
         <v>137</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" spans="1:11">
-      <c r="A63" s="3"/>
+      <c r="K62" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1"/>
       <c r="B63" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" spans="1:11">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
-      <c r="B64" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" t="s">
+      <c r="K64" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2485,17 +4844,30 @@
       <c r="D65" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="2" t="s">
-        <v>140</v>
+      <c r="K65" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K65">
+  <autoFilter ref="A1:K66">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
-    <mergeCell ref="A2:A65"/>
-    <mergeCell ref="C2:C65"/>
+    <mergeCell ref="A2:A66"/>
+    <mergeCell ref="C2:C66"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2506,18 +4878,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="50.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="68.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.66666666666667" customWidth="1"/>
+    <col min="9" max="10" width="7.66666666666667" customWidth="1"/>
+    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2530,7 +4905,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -2556,343 +4931,2178 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>145</v>
+      <c r="A2" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
+        <v>149</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
+      <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
+      <c r="D4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
+      <c r="D6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
+      <c r="D11" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+      <c r="D12" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
+      <c r="D13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+      <c r="D16" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+      <c r="D17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+      <c r="D18" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+      <c r="D19" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+      <c r="D21" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+      <c r="D22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+      <c r="D23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+      <c r="D24" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+      <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>200</v>
+      </c>
       <c r="C28" s="1"/>
-      <c r="D28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
+      <c r="D28" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>202</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+      <c r="D29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>204</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+      <c r="D30" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>206</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+      <c r="D31" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>208</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="1"/>
-      <c r="D33" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="1"/>
-      <c r="D34" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="1"/>
-      <c r="D35" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
       <c r="C37" s="1"/>
-      <c r="D37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
       <c r="C38" s="1"/>
-      <c r="D38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
+      <c r="D38" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
       <c r="C39" s="1"/>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
+      <c r="D39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
+      <c r="D40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
       <c r="C41" s="1"/>
-      <c r="D41" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
+      <c r="D41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
       <c r="C42" s="1"/>
-      <c r="D42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
+      <c r="D42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
+      <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
       <c r="C45" s="1"/>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
+      <c r="D45" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
       <c r="C46" s="1"/>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
+      <c r="D46" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
       <c r="C47" s="1"/>
-      <c r="D47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
+      <c r="D47" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>233</v>
+      </c>
       <c r="C48" s="1"/>
-      <c r="D48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="1"/>
-      <c r="D49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
+      <c r="D48" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>238</v>
+      </c>
       <c r="C50" s="1"/>
-      <c r="D50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
+      <c r="D50" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
       <c r="C51" s="1"/>
-      <c r="D51" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
+      <c r="D51" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
       <c r="C52" s="1"/>
-      <c r="D52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
+      <c r="D52" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
       <c r="C53" s="1"/>
-      <c r="D53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
+      <c r="D53" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
       <c r="C54" s="1"/>
-      <c r="D54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
+      <c r="D54" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>248</v>
+      </c>
       <c r="C55" s="1"/>
-      <c r="D55" t="s">
-        <v>196</v>
+      <c r="D55" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1"/>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1"/>
+      <c r="B59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1"/>
+      <c r="B60" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1"/>
+      <c r="B69" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1"/>
+      <c r="B70" t="s">
+        <v>278</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1"/>
+      <c r="B74" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1"/>
+      <c r="B75" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1"/>
+      <c r="B76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1"/>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1"/>
+      <c r="B78" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1"/>
+      <c r="B80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1"/>
+      <c r="B81" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
+        <v>302</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1"/>
+      <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1"/>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1"/>
+      <c r="B85" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1"/>
+      <c r="B86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1"/>
+      <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1"/>
+      <c r="B88" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1"/>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1"/>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1"/>
+      <c r="B91" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1"/>
+      <c r="B92" t="s">
+        <v>319</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1"/>
+      <c r="B93" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1"/>
+      <c r="B94" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1"/>
+      <c r="B95" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1"/>
+      <c r="B96" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1"/>
+      <c r="B97" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1"/>
+      <c r="B98" t="s">
+        <v>330</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1"/>
+      <c r="B99" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1"/>
+      <c r="B100" t="s">
+        <v>332</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1"/>
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1"/>
+      <c r="B102" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1"/>
+      <c r="B103" t="s">
+        <v>338</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1"/>
+      <c r="B104" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1"/>
+      <c r="B105" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1"/>
+      <c r="B106" t="s">
+        <v>343</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1"/>
+      <c r="B107" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1"/>
+      <c r="B108" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1"/>
+      <c r="B109" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1"/>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1"/>
+      <c r="B111" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1"/>
+      <c r="B112" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1"/>
+      <c r="B113" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1"/>
+      <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1"/>
+      <c r="B115" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1"/>
+      <c r="B116" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1"/>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1"/>
+      <c r="B118" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1"/>
+      <c r="B119" t="s">
+        <v>364</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1"/>
+      <c r="B120" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1"/>
+      <c r="B121" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1"/>
+      <c r="B122" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1"/>
+      <c r="B123" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1"/>
+      <c r="B124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1"/>
+      <c r="B125" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1"/>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1"/>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1"/>
+      <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1"/>
+      <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1"/>
+      <c r="B130" t="s">
+        <v>382</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1"/>
+      <c r="B131" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" t="s">
+        <v>384</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1"/>
+      <c r="B134" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1"/>
+      <c r="B135" t="s">
+        <v>390</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1"/>
+      <c r="B136" t="s">
+        <v>392</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1"/>
+      <c r="B137" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1"/>
+      <c r="B138" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1"/>
+      <c r="B139" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1"/>
+      <c r="B140" t="s">
+        <v>397</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1"/>
+      <c r="B141" t="s">
+        <v>399</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1"/>
+      <c r="B142" t="s">
+        <v>401</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1"/>
+      <c r="B144" t="s">
+        <v>405</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1"/>
+      <c r="B145" t="s">
+        <v>407</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1"/>
+      <c r="B146" t="s">
+        <v>408</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1"/>
+      <c r="B147" t="s">
+        <v>409</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1"/>
+      <c r="B148" t="s">
+        <v>410</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1"/>
+      <c r="B149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1"/>
+      <c r="B150" t="s">
+        <v>414</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1"/>
+      <c r="B151" t="s">
+        <v>416</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1"/>
+      <c r="B152" t="s">
+        <v>418</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1"/>
+      <c r="B153" t="s">
+        <v>420</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1"/>
+      <c r="B154" t="s">
+        <v>422</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1"/>
+      <c r="B155" t="s">
+        <v>424</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1"/>
+      <c r="B156" t="s">
+        <v>426</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1"/>
+      <c r="B157" t="s">
+        <v>428</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1"/>
+      <c r="B158" t="s">
+        <v>430</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1"/>
+      <c r="B159" t="s">
+        <v>432</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1"/>
+      <c r="B160" t="s">
+        <v>434</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1"/>
+      <c r="B161" t="s">
+        <v>436</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1"/>
+      <c r="B162" t="s">
+        <v>438</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="K162" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1"/>
+      <c r="B163" t="s">
+        <v>440</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1"/>
+      <c r="B164" t="s">
+        <v>442</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1"/>
+      <c r="B165" t="s">
+        <v>444</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1"/>
+      <c r="B166" t="s">
+        <v>446</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1"/>
+      <c r="B167" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1"/>
+      <c r="B168" t="s">
+        <v>450</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1"/>
+      <c r="B169" t="s">
+        <v>452</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1"/>
+      <c r="B170" t="s">
+        <v>454</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1"/>
+      <c r="B171" t="s">
+        <v>456</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:C35"/>
-    <mergeCell ref="C36:C55"/>
+  <autoFilter ref="A1:K171">
+    <extLst/>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A171"/>
+    <mergeCell ref="C2:C48"/>
+    <mergeCell ref="C49:C171"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2902,13 +7112,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="68.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2945,7 +7161,3120 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>475</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>488</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>492</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>497</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>498</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>499</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>503</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>504</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>505</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>509</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>511</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>512</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>513</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>514</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>515</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>516</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>517</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>518</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>519</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>520</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>522</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>525</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>526</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>527</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>529</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>530</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>531</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>532</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>533</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>534</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>535</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>537</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>541</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>542</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>543</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>544</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>545</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>546</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>547</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>548</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>550</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>551</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>552</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>553</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>554</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>555</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>556</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>557</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>558</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>559</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>560</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>561</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>562</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>563</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>564</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>565</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>566</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>567</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>568</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>569</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>570</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>571</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>572</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>573</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>574</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>575</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>577</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>578</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>579</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>581</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>582</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>583</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>584</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>585</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>586</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>587</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>588</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>589</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>590</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>591</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>592</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
+        <v>593</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>594</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>595</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>596</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>597</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>598</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>599</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>600</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>601</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
+        <v>602</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
+        <v>603</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>604</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>605</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>606</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>607</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>608</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>609</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>610</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>612</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>613</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>614</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>615</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>616</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
+        <v>617</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>618</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
+        <v>619</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
+        <v>620</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
+        <v>621</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
+        <v>622</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
+        <v>623</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
+        <v>624</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
+        <v>625</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" t="s">
+        <v>626</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" t="s">
+        <v>627</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" t="s">
+        <v>628</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>629</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>630</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>631</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" t="s">
+        <v>632</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" t="s">
+        <v>633</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D173" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" t="s">
+        <v>636</v>
+      </c>
+      <c r="C174" s="1"/>
+      <c r="D174" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" t="s">
+        <v>638</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" t="s">
+        <v>640</v>
+      </c>
+      <c r="C176" s="1"/>
+      <c r="D176" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>642</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
+        <v>644</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>646</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>648</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>650</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>652</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" t="s">
+        <v>654</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>656</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" t="s">
+        <v>658</v>
+      </c>
+      <c r="C185" s="1"/>
+      <c r="D185" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>660</v>
+      </c>
+      <c r="C186" s="1"/>
+      <c r="D186" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" t="s">
+        <v>662</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>664</v>
+      </c>
+      <c r="C188" s="1"/>
+      <c r="D188" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>666</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>668</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>670</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>672</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
+        <v>674</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" t="s">
+        <v>676</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" t="s">
+        <v>678</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" t="s">
+        <v>680</v>
+      </c>
+      <c r="C196" s="1"/>
+      <c r="D196" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" t="s">
+        <v>682</v>
+      </c>
+      <c r="C197" s="1"/>
+      <c r="D197" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>684</v>
+      </c>
+      <c r="C198" s="1"/>
+      <c r="D198" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" t="s">
+        <v>686</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
+        <v>690</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
+        <v>692</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>694</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" t="s">
+        <v>696</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" t="s">
+        <v>698</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>700</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>702</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" t="s">
+        <v>704</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" t="s">
+        <v>706</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
+        <v>708</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
+        <v>710</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" t="s">
+        <v>712</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
+        <v>714</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" t="s">
+        <v>716</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" t="s">
+        <v>718</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" t="s">
+        <v>720</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>722</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>724</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>726</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>728</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>730</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>732</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>734</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>736</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" t="s">
+        <v>738</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" t="s">
+        <v>740</v>
+      </c>
+      <c r="C226" s="1"/>
+      <c r="D226" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" t="s">
+        <v>742</v>
+      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" t="s">
+        <v>744</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" t="s">
+        <v>746</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" t="s">
+        <v>748</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" t="s">
+        <v>750</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
+        <v>752</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" t="s">
+        <v>754</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" t="s">
+        <v>756</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" t="s">
+        <v>758</v>
+      </c>
+      <c r="C235" s="1"/>
+      <c r="D235" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
+        <v>760</v>
+      </c>
+      <c r="C236" s="1"/>
+      <c r="D236" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" t="s">
+        <v>762</v>
+      </c>
+      <c r="C237" s="1"/>
+      <c r="D237" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
+        <v>764</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
+        <v>766</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
+        <v>768</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
+        <v>770</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
+        <v>772</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" t="s">
+        <v>774</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
+        <v>776</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
+        <v>778</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
+        <v>780</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="B247" t="s">
+        <v>782</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>784</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>786</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>788</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
+        <v>790</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
+        <v>792</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
+        <v>794</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
+        <v>796</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" t="s">
+        <v>798</v>
+      </c>
+      <c r="C255" s="1"/>
+      <c r="D255" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
+        <v>800</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>802</v>
+      </c>
+      <c r="C257" s="1"/>
+      <c r="D257" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
+        <v>804</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>806</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>808</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
+        <v>810</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="D261" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
+        <v>812</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
+        <v>814</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
+        <v>816</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" t="s">
+        <v>818</v>
+      </c>
+      <c r="C265" s="1"/>
+      <c r="D265" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
+        <v>820</v>
+      </c>
+      <c r="C266" s="1"/>
+      <c r="D266" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267" t="s">
+        <v>822</v>
+      </c>
+      <c r="C267" s="1"/>
+      <c r="D267" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268" t="s">
+        <v>824</v>
+      </c>
+      <c r="C268" s="1"/>
+      <c r="D268" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269" t="s">
+        <v>826</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270" t="s">
+        <v>828</v>
+      </c>
+      <c r="C270" s="1"/>
+      <c r="D270" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="B271" t="s">
+        <v>830</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272" t="s">
+        <v>832</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" t="s">
+        <v>834</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274" t="s">
+        <v>836</v>
+      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" t="s">
+        <v>838</v>
+      </c>
+      <c r="C275" s="1"/>
+      <c r="D275" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" t="s">
+        <v>840</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" t="s">
+        <v>842</v>
+      </c>
+      <c r="C277" s="1"/>
+      <c r="D277" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" t="s">
+        <v>844</v>
+      </c>
+      <c r="C278" s="1"/>
+      <c r="D278" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279" t="s">
+        <v>846</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280" t="s">
+        <v>848</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>850</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>852</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>854</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>856</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>858</v>
+      </c>
+      <c r="C285" s="1"/>
+      <c r="D285" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>860</v>
+      </c>
+      <c r="C286" s="1"/>
+      <c r="D286" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
+        <v>862</v>
+      </c>
+      <c r="C287" s="1"/>
+      <c r="D287" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>864</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>866</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D289" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>869</v>
+      </c>
+      <c r="C290" s="1"/>
+      <c r="D290" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="1"/>
+      <c r="D291" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
+        <v>873</v>
+      </c>
+      <c r="C292" s="1"/>
+      <c r="D292" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>875</v>
+      </c>
+      <c r="C293" s="1"/>
+      <c r="D293" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
+        <v>876</v>
+      </c>
+      <c r="C294" s="1"/>
+      <c r="D294" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>878</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>880</v>
+      </c>
+      <c r="C296" s="1"/>
+      <c r="D296" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
+        <v>882</v>
+      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>884</v>
+      </c>
+      <c r="C298" s="1"/>
+      <c r="D298" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>886</v>
+      </c>
+      <c r="C299" s="1"/>
+      <c r="D299" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>888</v>
+      </c>
+      <c r="C300" s="1"/>
+      <c r="D300" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>890</v>
+      </c>
+      <c r="C301" s="1"/>
+      <c r="D301" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
+        <v>892</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
+        <v>894</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
+        <v>896</v>
+      </c>
+      <c r="C304" s="1"/>
+      <c r="D304" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
+        <v>898</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>900</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" t="s">
+        <v>902</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
+        <v>904</v>
+      </c>
+      <c r="C308" s="1"/>
+      <c r="D308" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
+        <v>906</v>
+      </c>
+      <c r="C309" s="1"/>
+      <c r="D309" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>908</v>
+      </c>
+      <c r="C310" s="1"/>
+      <c r="D310" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" t="s">
+        <v>910</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>912</v>
+      </c>
+      <c r="C312" s="1"/>
+      <c r="D312" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>914</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>916</v>
+      </c>
+      <c r="C314" s="1"/>
+      <c r="D314" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>918</v>
+      </c>
+      <c r="C315" s="1"/>
+      <c r="D315" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>920</v>
+      </c>
+      <c r="C316" s="1"/>
+      <c r="D316" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>922</v>
+      </c>
+      <c r="C317" s="1"/>
+      <c r="D317" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>924</v>
+      </c>
+      <c r="C318" s="1"/>
+      <c r="D318" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>926</v>
+      </c>
+      <c r="C319" s="1"/>
+      <c r="D319" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" t="s">
+        <v>928</v>
+      </c>
+      <c r="C320" s="1"/>
+      <c r="D320" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" t="s">
+        <v>930</v>
+      </c>
+      <c r="C321" s="1"/>
+      <c r="D321" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>932</v>
+      </c>
+      <c r="C322" s="1"/>
+      <c r="D322" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>934</v>
+      </c>
+      <c r="C323" s="1"/>
+      <c r="D323" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" t="s">
+        <v>936</v>
+      </c>
+      <c r="C324" s="1"/>
+      <c r="D324" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" t="s">
+        <v>938</v>
+      </c>
+      <c r="C325" s="1"/>
+      <c r="D325" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" t="s">
+        <v>940</v>
+      </c>
+      <c r="C326" s="1"/>
+      <c r="D326" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="B327" t="s">
+        <v>942</v>
+      </c>
+      <c r="C327" s="1"/>
+      <c r="D327" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="B328" t="s">
+        <v>944</v>
+      </c>
+      <c r="C328" s="1"/>
+      <c r="D328" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4">
+      <c r="B329" t="s">
+        <v>946</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330" t="s">
+        <v>948</v>
+      </c>
+      <c r="C330" s="1"/>
+      <c r="D330" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" t="s">
+        <v>950</v>
+      </c>
+      <c r="C331" s="1"/>
+      <c r="D331" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" t="s">
+        <v>952</v>
+      </c>
+      <c r="C332" s="1"/>
+      <c r="D332" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4">
+      <c r="B333" t="s">
+        <v>954</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4">
+      <c r="B334" t="s">
+        <v>956</v>
+      </c>
+      <c r="C334" s="1"/>
+      <c r="D334" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335" t="s">
+        <v>958</v>
+      </c>
+      <c r="C335" s="1"/>
+      <c r="D335" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4">
+      <c r="B336" t="s">
+        <v>960</v>
+      </c>
+      <c r="C336" s="1"/>
+      <c r="D336" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>962</v>
+      </c>
+      <c r="C337" s="1"/>
+      <c r="D337" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>964</v>
+      </c>
+      <c r="C338" s="1"/>
+      <c r="D338" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>966</v>
+      </c>
+      <c r="C339" s="1"/>
+      <c r="D339" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>968</v>
+      </c>
+      <c r="C340" s="1"/>
+      <c r="D340" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>970</v>
+      </c>
+      <c r="C341" s="1"/>
+      <c r="D341" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>972</v>
+      </c>
+      <c r="C342" s="1"/>
+      <c r="D342" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>974</v>
+      </c>
+      <c r="C343" s="1"/>
+      <c r="D343" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>976</v>
+      </c>
+      <c r="C344" s="1"/>
+      <c r="D344" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>978</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C48"/>
+    <mergeCell ref="C49:C172"/>
+    <mergeCell ref="C173:C288"/>
+    <mergeCell ref="C289:C345"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -2954,13 +10283,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="59.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2995,6 +10327,531 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="4:4">
+      <c r="D2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
